--- a/demo.xlsx
+++ b/demo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DFD\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aresp\Desktop\usercode\SARS-CoV-2_autoFill\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1FE636-CEB4-46AB-A941-9A629D3555D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12690"/>
+    <workbookView xWindow="-120" yWindow="21480" windowWidth="77040" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -301,7 +302,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -372,7 +373,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,6 +396,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFD6F3FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -430,7 +443,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -470,10 +483,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -745,24 +770,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AT29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N8" sqref="N8"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP18" sqref="AP18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" customWidth="1"/>
-    <col min="2" max="41" width="7.7265625" customWidth="1"/>
-    <col min="42" max="43" width="9.7265625" customWidth="1"/>
-    <col min="44" max="44" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="41" width="7.77734375" customWidth="1"/>
+    <col min="42" max="43" width="9.77734375" customWidth="1"/>
+    <col min="44" max="44" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="22.75" customHeight="1">
+    <row r="1" spans="1:46" ht="22.8" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -824,7 +849,7 @@
       <c r="AS1" s="10"/>
       <c r="AT1" s="10"/>
     </row>
-    <row r="2" spans="1:46" ht="22.75" customHeight="1">
+    <row r="2" spans="1:46" ht="22.8" customHeight="1">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="12"/>
@@ -888,7 +913,7 @@
       </c>
       <c r="AT2" s="10"/>
     </row>
-    <row r="3" spans="1:46" ht="22.75" customHeight="1">
+    <row r="3" spans="1:46" ht="22.8" customHeight="1">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="12"/>
@@ -936,7 +961,7 @@
       <c r="AS3" s="10"/>
       <c r="AT3" s="10"/>
     </row>
-    <row r="4" spans="1:46" ht="79.150000000000006" customHeight="1">
+    <row r="4" spans="1:46" ht="79.2" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="3" t="s">
@@ -1072,7 +1097,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="22.75" customHeight="1">
+    <row r="5" spans="1:46" ht="22.8" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1122,7 +1147,7 @@
       <c r="AS5" s="6"/>
       <c r="AT5" s="7"/>
     </row>
-    <row r="6" spans="1:46" ht="22.75" customHeight="1">
+    <row r="6" spans="1:46" ht="22.8" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>47</v>
       </c>
@@ -1172,7 +1197,7 @@
       <c r="AS6" s="6"/>
       <c r="AT6" s="7"/>
     </row>
-    <row r="7" spans="1:46" ht="22.75" customHeight="1">
+    <row r="7" spans="1:46" ht="22.8" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>48</v>
       </c>
@@ -1222,7 +1247,7 @@
       <c r="AS7" s="6"/>
       <c r="AT7" s="7"/>
     </row>
-    <row r="8" spans="1:46" ht="22.75" customHeight="1">
+    <row r="8" spans="1:46" ht="22.8" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>49</v>
       </c>
@@ -1272,7 +1297,7 @@
       <c r="AS8" s="6"/>
       <c r="AT8" s="7"/>
     </row>
-    <row r="9" spans="1:46" ht="22.75" customHeight="1">
+    <row r="9" spans="1:46" ht="22.8" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -1322,7 +1347,7 @@
       <c r="AS9" s="6"/>
       <c r="AT9" s="7"/>
     </row>
-    <row r="10" spans="1:46" ht="22.75" customHeight="1">
+    <row r="10" spans="1:46" ht="22.8" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -1372,7 +1397,7 @@
       <c r="AS10" s="6"/>
       <c r="AT10" s="7"/>
     </row>
-    <row r="11" spans="1:46" ht="22.75" customHeight="1">
+    <row r="11" spans="1:46" ht="22.8" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -1484,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:46" ht="22.75" customHeight="1">
+    <row r="12" spans="1:46" ht="22.8" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
@@ -1534,7 +1559,7 @@
       <c r="AS12" s="6"/>
       <c r="AT12" s="7"/>
     </row>
-    <row r="13" spans="1:46" ht="22.75" customHeight="1">
+    <row r="13" spans="1:46" ht="22.8" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>55</v>
       </c>
@@ -1584,31 +1609,31 @@
       <c r="AS13" s="6"/>
       <c r="AT13" s="7"/>
     </row>
-    <row r="14" spans="1:46" ht="22.75" customHeight="1">
+    <row r="14" spans="1:46" ht="22.8" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -1616,25 +1641,25 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="16"/>
+      <c r="AG14" s="16"/>
+      <c r="AH14" s="16"/>
+      <c r="AI14" s="16"/>
       <c r="AJ14" s="4"/>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
-      <c r="AP14" s="6"/>
-      <c r="AQ14" s="7"/>
-      <c r="AR14" s="7"/>
+      <c r="AP14" s="15"/>
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="16"/>
       <c r="AS14" s="6"/>
       <c r="AT14" s="7"/>
     </row>
-    <row r="15" spans="1:46" ht="22.75" customHeight="1">
+    <row r="15" spans="1:46" ht="22.8" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>57</v>
       </c>
@@ -1684,7 +1709,7 @@
       <c r="AS15" s="6"/>
       <c r="AT15" s="7"/>
     </row>
-    <row r="16" spans="1:46" ht="22.75" customHeight="1">
+    <row r="16" spans="1:46" ht="22.8" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>58</v>
       </c>
@@ -1734,7 +1759,7 @@
       <c r="AS16" s="6"/>
       <c r="AT16" s="7"/>
     </row>
-    <row r="17" spans="1:46" ht="22.75" customHeight="1">
+    <row r="17" spans="1:46" ht="22.8" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -1784,7 +1809,7 @@
       <c r="AS17" s="6"/>
       <c r="AT17" s="7"/>
     </row>
-    <row r="18" spans="1:46" ht="22.75" customHeight="1">
+    <row r="18" spans="1:46" ht="22.8" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>60</v>
       </c>
@@ -1834,7 +1859,7 @@
       <c r="AS18" s="6"/>
       <c r="AT18" s="7"/>
     </row>
-    <row r="19" spans="1:46" ht="22.75" customHeight="1">
+    <row r="19" spans="1:46" ht="22.8" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>61</v>
       </c>
@@ -1884,7 +1909,7 @@
       <c r="AS19" s="6"/>
       <c r="AT19" s="7"/>
     </row>
-    <row r="20" spans="1:46" ht="22.75" customHeight="1">
+    <row r="20" spans="1:46" ht="22.8" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -1934,7 +1959,7 @@
       <c r="AS20" s="6"/>
       <c r="AT20" s="7"/>
     </row>
-    <row r="21" spans="1:46" ht="22.75" customHeight="1">
+    <row r="21" spans="1:46" ht="22.8" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>63</v>
       </c>
@@ -1984,7 +2009,7 @@
       <c r="AS21" s="6"/>
       <c r="AT21" s="7"/>
     </row>
-    <row r="22" spans="1:46" ht="22.75" customHeight="1">
+    <row r="22" spans="1:46" ht="22.8" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>64</v>
       </c>
@@ -2034,7 +2059,7 @@
       <c r="AS22" s="6"/>
       <c r="AT22" s="7"/>
     </row>
-    <row r="23" spans="1:46" ht="22.75" customHeight="1">
+    <row r="23" spans="1:46" ht="22.8" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>65</v>
       </c>
@@ -2084,7 +2109,7 @@
       <c r="AS23" s="6"/>
       <c r="AT23" s="7"/>
     </row>
-    <row r="24" spans="1:46" ht="22.75" customHeight="1">
+    <row r="24" spans="1:46" ht="22.8" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>66</v>
       </c>
@@ -2134,7 +2159,7 @@
       <c r="AS24" s="6"/>
       <c r="AT24" s="7"/>
     </row>
-    <row r="25" spans="1:46" ht="22.75" customHeight="1">
+    <row r="25" spans="1:46" ht="22.8" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>67</v>
       </c>
@@ -2184,7 +2209,7 @@
       <c r="AS25" s="6"/>
       <c r="AT25" s="7"/>
     </row>
-    <row r="26" spans="1:46" ht="22.75" customHeight="1">
+    <row r="26" spans="1:46" ht="22.8" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>68</v>
       </c>
@@ -2234,7 +2259,7 @@
       <c r="AS26" s="6"/>
       <c r="AT26" s="7"/>
     </row>
-    <row r="27" spans="1:46" ht="22.75" customHeight="1">
+    <row r="27" spans="1:46" ht="22.8" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>69</v>
       </c>
@@ -2312,7 +2337,7 @@
       <c r="AS27" s="6"/>
       <c r="AT27" s="7"/>
     </row>
-    <row r="28" spans="1:46" ht="22.75" customHeight="1">
+    <row r="28" spans="1:46" ht="22.8" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>70</v>
       </c>
@@ -2384,7 +2409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:46" ht="22.75" customHeight="1">
+    <row r="29" spans="1:46" ht="22.8" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
@@ -2460,37 +2485,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
 </pixelators>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2499,7 +2504,36 @@
 </settings>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -2508,17 +2542,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2527,6 +2552,15 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -2535,17 +2569,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aresp\Desktop\usercode\SARS-CoV-2_autoFill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1FE636-CEB4-46AB-A941-9A629D3555D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD8FA16-5B12-47B5-B696-32B22A4CB27C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="21480" windowWidth="77040" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>学校名称</t>
   </si>
@@ -100,38 +100,6 @@
     <t>开学前是否开展过防疫演练</t>
   </si>
   <si>
-    <t>合计 （数据为后三列之和，即内地学生+港澳台+留学生）</t>
-  </si>
-  <si>
-    <t>内地学生数</t>
-  </si>
-  <si>
-    <t>港澳台学生数</t>
-  </si>
-  <si>
-    <t>留学生数</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>合计中的当日校内</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="SimSun"/>
-        <charset val="134"/>
-      </rPr>
-      <t>发热学生人数</t>
-    </r>
-  </si>
-  <si>
     <t>合计 （数据为后四列之和，即内地+港澳台+外籍+离退休）</t>
   </si>
   <si>
@@ -167,136 +135,220 @@
     </r>
   </si>
   <si>
+    <t>实到人数（晨检人数）</t>
+  </si>
+  <si>
+    <t>因发热未到或请假（体温37.3或以上）</t>
+  </si>
+  <si>
+    <t>因其他原因未到或请假（除发热外）</t>
+  </si>
+  <si>
+    <t>校内晨检异常人数（体温异常）</t>
+  </si>
+  <si>
+    <t>校内晨检异常其他人数（如：咳嗽、腹泻等）</t>
+  </si>
+  <si>
+    <t>当日校内因发热送检人数（体温37.3或以上）</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>绿码人数</t>
+  </si>
+  <si>
+    <t>黄码人数</t>
+  </si>
+  <si>
+    <t>红码人数</t>
+  </si>
+  <si>
+    <t>橙码人数</t>
+  </si>
+  <si>
+    <t>未申领人数</t>
+  </si>
+  <si>
+    <t>当日接触过省外返衢对象的(教职工数)</t>
+  </si>
+  <si>
+    <t>当日接触过境外返衢对象的(教职工数)</t>
+  </si>
+  <si>
+    <t>白云学校  (小学部)</t>
+  </si>
+  <si>
+    <t>鹿鸣小学</t>
+  </si>
+  <si>
+    <t>礼贤小学</t>
+  </si>
+  <si>
+    <t>尼山小学</t>
+  </si>
+  <si>
+    <t>新华小学</t>
+  </si>
+  <si>
+    <t>大成小学</t>
+  </si>
+  <si>
+    <t>实验小学</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新星小学       </t>
+  </si>
+  <si>
+    <t>白沙小学</t>
+  </si>
+  <si>
+    <t>新世纪学校</t>
+  </si>
+  <si>
+    <t>城南小学</t>
+  </si>
+  <si>
+    <t>花园小学</t>
+  </si>
+  <si>
+    <t>石梁小学</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巨化一小         </t>
+  </si>
+  <si>
+    <t>巨化三小</t>
+  </si>
+  <si>
+    <t>汪村小学</t>
+  </si>
+  <si>
+    <t>航埠小学</t>
+  </si>
+  <si>
+    <t>华墅小学</t>
+  </si>
+  <si>
+    <t xml:space="preserve">石室小学  </t>
+  </si>
+  <si>
+    <t>万田小学</t>
+  </si>
+  <si>
+    <t>沟溪小学</t>
+  </si>
+  <si>
+    <t>黄家小学</t>
+  </si>
+  <si>
+    <t>姜家山小学</t>
+  </si>
+  <si>
+    <t>九华小学</t>
+  </si>
+  <si>
+    <t>阳光小学</t>
+  </si>
+  <si>
     <t>应到人数（要求到校人数）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计 （数据为后三列之和，即内地学生+港澳台+留学生）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>内地学生数</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>港澳台学生数</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>留学生数</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>合计中的当日校内</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>发热学生人数</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>实到人数（晨检人数）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>因发热未到或请假（体温37.3或以上）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>因其他原因未到或请假（除发热外）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>校内晨检异常人数（体温异常）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>校内晨检异常其他人数（如：咳嗽、腹泻等）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>当日校内因发热送检人数（体温37.3或以上）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>总计</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>绿码人数</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>黄码人数</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>红码人数</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>橙码人数</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>未申领人数</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>接触过省外返衢对象的(学生数)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>接触过境外返衢对象的(学生数)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>与疫情中高风险地区、境外回衢人员接触的家长人数统计</t>
-  </si>
-  <si>
-    <t>当日接触过省外返衢对象的(教职工数)</t>
-  </si>
-  <si>
-    <t>当日接触过境外返衢对象的(教职工数)</t>
-  </si>
-  <si>
-    <t>白云学校  (小学部)</t>
-  </si>
-  <si>
-    <t>鹿鸣小学</t>
-  </si>
-  <si>
-    <t>礼贤小学</t>
-  </si>
-  <si>
-    <t>尼山小学</t>
-  </si>
-  <si>
-    <t>新华小学</t>
-  </si>
-  <si>
-    <t>大成小学</t>
-  </si>
-  <si>
-    <t>实验小学</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新星小学       </t>
-  </si>
-  <si>
-    <t>白沙小学</t>
-  </si>
-  <si>
-    <t>新世纪学校</t>
-  </si>
-  <si>
-    <t>城南小学</t>
-  </si>
-  <si>
-    <t>花园小学</t>
-  </si>
-  <si>
-    <t>石梁小学</t>
-  </si>
-  <si>
-    <t xml:space="preserve">巨化一小         </t>
-  </si>
-  <si>
-    <t>巨化三小</t>
-  </si>
-  <si>
-    <t>汪村小学</t>
-  </si>
-  <si>
-    <t>航埠小学</t>
-  </si>
-  <si>
-    <t>华墅小学</t>
-  </si>
-  <si>
-    <t xml:space="preserve">石室小学  </t>
-  </si>
-  <si>
-    <t>万田小学</t>
-  </si>
-  <si>
-    <t>沟溪小学</t>
-  </si>
-  <si>
-    <t>黄家小学</t>
-  </si>
-  <si>
-    <t>姜家山小学</t>
-  </si>
-  <si>
-    <t>九华小学</t>
-  </si>
-  <si>
-    <t>阳光小学</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -468,6 +520,18 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -481,18 +545,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -776,194 +828,194 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP18" sqref="AP18"/>
+      <selection pane="topRight" activeCell="AR4" sqref="AR4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1"/>
-    <col min="2" max="41" width="7.77734375" customWidth="1"/>
-    <col min="42" max="43" width="9.77734375" customWidth="1"/>
-    <col min="44" max="44" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="9.75" customWidth="1"/>
+    <col min="2" max="41" width="7.75" customWidth="1"/>
+    <col min="42" max="43" width="9.75" customWidth="1"/>
+    <col min="44" max="44" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="22.8" customHeight="1">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:46" ht="22.9" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="9" t="s">
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="10" t="s">
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-    </row>
-    <row r="2" spans="1:46" ht="22.8" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12" t="s">
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+    </row>
+    <row r="2" spans="1:46" ht="22.9" customHeight="1">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="9" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9" t="s">
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9" t="s">
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9" t="s">
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="10" t="s">
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="10" t="s">
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="14"/>
+      <c r="AS2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="AT2" s="10"/>
-    </row>
-    <row r="3" spans="1:46" ht="22.8" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-    </row>
-    <row r="4" spans="1:46" ht="79.2" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="AT2" s="14"/>
+    </row>
+    <row r="3" spans="1:46" ht="22.9" customHeight="1">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
+      <c r="AL3" s="13"/>
+      <c r="AM3" s="13"/>
+      <c r="AN3" s="13"/>
+      <c r="AO3" s="13"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+    </row>
+    <row r="4" spans="1:46" ht="79.150000000000006" customHeight="1">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
@@ -971,135 +1023,135 @@
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="P4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="AK4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="AL4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="AM4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="AN4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="AO4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AP4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AR4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AT4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AF4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:46" ht="22.9" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:46" ht="22.8" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1147,9 +1199,9 @@
       <c r="AS5" s="6"/>
       <c r="AT5" s="7"/>
     </row>
-    <row r="6" spans="1:46" ht="22.8" customHeight="1">
+    <row r="6" spans="1:46" ht="22.9" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1197,9 +1249,9 @@
       <c r="AS6" s="6"/>
       <c r="AT6" s="7"/>
     </row>
-    <row r="7" spans="1:46" ht="22.8" customHeight="1">
+    <row r="7" spans="1:46" ht="22.9" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1247,9 +1299,9 @@
       <c r="AS7" s="6"/>
       <c r="AT7" s="7"/>
     </row>
-    <row r="8" spans="1:46" ht="22.8" customHeight="1">
+    <row r="8" spans="1:46" ht="22.9" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1297,9 +1349,9 @@
       <c r="AS8" s="6"/>
       <c r="AT8" s="7"/>
     </row>
-    <row r="9" spans="1:46" ht="22.8" customHeight="1">
+    <row r="9" spans="1:46" ht="22.9" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1347,9 +1399,9 @@
       <c r="AS9" s="6"/>
       <c r="AT9" s="7"/>
     </row>
-    <row r="10" spans="1:46" ht="22.8" customHeight="1">
+    <row r="10" spans="1:46" ht="22.9" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1397,9 +1449,9 @@
       <c r="AS10" s="6"/>
       <c r="AT10" s="7"/>
     </row>
-    <row r="11" spans="1:46" ht="22.8" customHeight="1">
+    <row r="11" spans="1:46" ht="22.9" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1">
         <v>1445</v>
@@ -1408,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E11" s="4">
         <v>1327</v>
@@ -1509,9 +1561,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:46" ht="22.8" customHeight="1">
+    <row r="12" spans="1:46" ht="22.9" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1559,9 +1611,9 @@
       <c r="AS12" s="6"/>
       <c r="AT12" s="7"/>
     </row>
-    <row r="13" spans="1:46" ht="22.8" customHeight="1">
+    <row r="13" spans="1:46" ht="22.9" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1609,31 +1661,31 @@
       <c r="AS13" s="6"/>
       <c r="AT13" s="7"/>
     </row>
-    <row r="14" spans="1:46" ht="22.8" customHeight="1">
+    <row r="14" spans="1:46" ht="22.9" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -1641,27 +1693,27 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
       <c r="AJ14" s="4"/>
       <c r="AK14" s="1"/>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
-      <c r="AP14" s="15"/>
-      <c r="AQ14" s="16"/>
-      <c r="AR14" s="16"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="11"/>
       <c r="AS14" s="6"/>
       <c r="AT14" s="7"/>
     </row>
-    <row r="15" spans="1:46" ht="22.8" customHeight="1">
+    <row r="15" spans="1:46" ht="22.9" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1709,9 +1761,9 @@
       <c r="AS15" s="6"/>
       <c r="AT15" s="7"/>
     </row>
-    <row r="16" spans="1:46" ht="22.8" customHeight="1">
+    <row r="16" spans="1:46" ht="22.9" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1759,9 +1811,9 @@
       <c r="AS16" s="6"/>
       <c r="AT16" s="7"/>
     </row>
-    <row r="17" spans="1:46" ht="22.8" customHeight="1">
+    <row r="17" spans="1:46" ht="22.9" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1809,9 +1861,9 @@
       <c r="AS17" s="6"/>
       <c r="AT17" s="7"/>
     </row>
-    <row r="18" spans="1:46" ht="22.8" customHeight="1">
+    <row r="18" spans="1:46" ht="22.9" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1859,9 +1911,9 @@
       <c r="AS18" s="6"/>
       <c r="AT18" s="7"/>
     </row>
-    <row r="19" spans="1:46" ht="22.8" customHeight="1">
+    <row r="19" spans="1:46" ht="22.9" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1909,9 +1961,9 @@
       <c r="AS19" s="6"/>
       <c r="AT19" s="7"/>
     </row>
-    <row r="20" spans="1:46" ht="22.8" customHeight="1">
+    <row r="20" spans="1:46" ht="22.9" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1959,9 +2011,9 @@
       <c r="AS20" s="6"/>
       <c r="AT20" s="7"/>
     </row>
-    <row r="21" spans="1:46" ht="22.8" customHeight="1">
+    <row r="21" spans="1:46" ht="22.9" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2009,9 +2061,9 @@
       <c r="AS21" s="6"/>
       <c r="AT21" s="7"/>
     </row>
-    <row r="22" spans="1:46" ht="22.8" customHeight="1">
+    <row r="22" spans="1:46" ht="22.9" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2059,9 +2111,9 @@
       <c r="AS22" s="6"/>
       <c r="AT22" s="7"/>
     </row>
-    <row r="23" spans="1:46" ht="22.8" customHeight="1">
+    <row r="23" spans="1:46" ht="22.9" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2109,9 +2161,9 @@
       <c r="AS23" s="6"/>
       <c r="AT23" s="7"/>
     </row>
-    <row r="24" spans="1:46" ht="22.8" customHeight="1">
+    <row r="24" spans="1:46" ht="22.9" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2159,9 +2211,9 @@
       <c r="AS24" s="6"/>
       <c r="AT24" s="7"/>
     </row>
-    <row r="25" spans="1:46" ht="22.8" customHeight="1">
+    <row r="25" spans="1:46" ht="22.9" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2209,9 +2261,9 @@
       <c r="AS25" s="6"/>
       <c r="AT25" s="7"/>
     </row>
-    <row r="26" spans="1:46" ht="22.8" customHeight="1">
+    <row r="26" spans="1:46" ht="22.9" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2259,9 +2311,9 @@
       <c r="AS26" s="6"/>
       <c r="AT26" s="7"/>
     </row>
-    <row r="27" spans="1:46" ht="22.8" customHeight="1">
+    <row r="27" spans="1:46" ht="22.9" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B27" s="1">
         <v>455</v>
@@ -2270,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E27" s="4">
         <v>422</v>
@@ -2337,9 +2389,9 @@
       <c r="AS27" s="6"/>
       <c r="AT27" s="7"/>
     </row>
-    <row r="28" spans="1:46" ht="22.8" customHeight="1">
+    <row r="28" spans="1:46" ht="22.9" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2409,9 +2461,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:46" ht="22.8" customHeight="1">
+    <row r="29" spans="1:46" ht="22.9" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2485,17 +2537,37 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
 </pixelators>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2504,27 +2576,16 @@
 </settings>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -2533,17 +2594,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -2552,6 +2604,15 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -2560,17 +2621,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
